--- a/IPL Analysis.xlsx
+++ b/IPL Analysis.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/praveenkumar_tr_dxc_com/Documents/Desktop/MFS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F842F2AB-F5B3-4A05-ABED-287D63578CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{F842F2AB-F5B3-4A05-ABED-287D63578CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69693213-4D66-4B75-BA1C-B8EFF2E74547}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92A257DA-3B33-41DA-8573-798AC54EDF11}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{92A257DA-3B33-41DA-8573-798AC54EDF11}"/>
   </bookViews>
   <sheets>
     <sheet name="Seasonal Fact" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Team Dim" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Seasonal Fact'!$A$1:$H$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Team Dim'!$A$1:$M$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="187">
   <si>
     <t>Season</t>
   </si>
@@ -256,6 +257,351 @@
   </si>
   <si>
     <t>SA Yadav</t>
+  </si>
+  <si>
+    <t>Team name</t>
+  </si>
+  <si>
+    <t>Home State</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Active years</t>
+  </si>
+  <si>
+    <t>Slogam</t>
+  </si>
+  <si>
+    <t>X followers</t>
+  </si>
+  <si>
+    <t>Insta folowers</t>
+  </si>
+  <si>
+    <t>Popularity Score</t>
+  </si>
+  <si>
+    <t>Trivia</t>
+  </si>
+  <si>
+    <t>Home Ground</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Chennai Super Kings Cricket Ltd.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Whistle Podu</t>
+  </si>
+  <si>
+    <t>10.8M</t>
+  </si>
+  <si>
+    <t>17.8M</t>
+  </si>
+  <si>
+    <t>One of the most successful IPL teams, with 5 IPL titles (2010, 2011, 2018, 2021, 2023). Holds the record for most playoff appearances (12) and final appearances (10). Led by MS Dhoni for most of its history.</t>
+  </si>
+  <si>
+    <t>M. A. Chidambaram Stadium</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Deccan Chronicle Holdings Ltd.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Won the IPL title in 2009. The franchise was terminated by the IPL governing council in 2012 for breaching contract terms.</t>
+  </si>
+  <si>
+    <t>Rajiv Gandhi International Cricket Stadium</t>
+  </si>
+  <si>
+    <t>KC Sangakkara</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>GMR Group and JSW Group</t>
+  </si>
+  <si>
+    <t>Dilli Meri Jaan</t>
+  </si>
+  <si>
+    <t>2.6M</t>
+  </si>
+  <si>
+    <t>4.2M</t>
+  </si>
+  <si>
+    <t>Formerly known as Delhi Daredevils. One of the few original teams that has not yet won an IPL title.</t>
+  </si>
+  <si>
+    <t>Arun Jaitley Stadium</t>
+  </si>
+  <si>
+    <t>AR Patel</t>
+  </si>
+  <si>
+    <t>Gujarat Lions</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Intex Technologies</t>
+  </si>
+  <si>
+    <t>Game mari che</t>
+  </si>
+  <si>
+    <t>Played in IPL for two seasons (2016 and 2017) as a replacement for Chennai Super Kings and Rajasthan Royals. Topped the points table in their debut season (2016).</t>
+  </si>
+  <si>
+    <t>Saurashtra Cricket Association Stadium</t>
+  </si>
+  <si>
+    <t>SK Raina</t>
+  </si>
+  <si>
+    <t>Torrent Group and CVC Capital Partners</t>
+  </si>
+  <si>
+    <t>614.9K</t>
+  </si>
+  <si>
+    <t>4.4M</t>
+  </si>
+  <si>
+    <t>Entered the IPL in 2022. Won their maiden IPL title in their debut season (2022). Runners-up in 2023.</t>
+  </si>
+  <si>
+    <t>Narendra Modi Stadium</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Ness Wadia, Mohit Burman, Preity G Zinta, and Karan Paul</t>
+  </si>
+  <si>
+    <t>Live Punjabi, Play Punjabi</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>3.6M</t>
+  </si>
+  <si>
+    <t>Formerly known as Kings XI Punjab. One of the original teams that has not yet won an IPL title.</t>
+  </si>
+  <si>
+    <t>PCA Stadium</t>
+  </si>
+  <si>
+    <t>Kochi Tuskers Kerala</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Rendezvous Sports World</t>
+  </si>
+  <si>
+    <t>Only played for one season in 2011. Terminated by the BCCI due to breach of bank guarantee terms.</t>
+  </si>
+  <si>
+    <t>Jawaharlal Nehru Stadium</t>
+  </si>
+  <si>
+    <t>DPMD Jayawardene</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Shah Rukh Khan , Juhi Chawla, and Jay Mehta</t>
+  </si>
+  <si>
+    <t>Korbo, Lorbo, Jeetbo</t>
+  </si>
+  <si>
+    <t>5.3M</t>
+  </si>
+  <si>
+    <t>6.9M</t>
+  </si>
+  <si>
+    <t>Won IPL titles in 2012, 2014, and 2024. Hold the record for the longest winning streak by any IPL team (14 matches).</t>
+  </si>
+  <si>
+    <t>Eden Gardens</t>
+  </si>
+  <si>
+    <t>AM Rahane</t>
+  </si>
+  <si>
+    <t>Lucknow Super Giants</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Sanjiv Goenka</t>
+  </si>
+  <si>
+    <t>812.6K</t>
+  </si>
+  <si>
+    <t>3.4M</t>
+  </si>
+  <si>
+    <t>Entered the IPL in 2022. Have reached the playoffs in their first two seasons (2022, 2023).</t>
+  </si>
+  <si>
+    <t>BRSABV Ekana Cricket Stadium</t>
+  </si>
+  <si>
+    <t>RR Pant</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Reliance Industries (Indiawin Sports)</t>
+  </si>
+  <si>
+    <t>Duniya Hila Denge</t>
+  </si>
+  <si>
+    <t>8.3M</t>
+  </si>
+  <si>
+    <t>16.3M</t>
+  </si>
+  <si>
+    <t>Most successful IPL team, with 5 IPL titles (2013, 2015, 2017, 2019, 2020), tied with CSK. First franchise to cross the $100 million mark in brand value.</t>
+  </si>
+  <si>
+    <t>Wankhede Stadium</t>
+  </si>
+  <si>
+    <t>Pune Warriors</t>
+  </si>
+  <si>
+    <t>Sahara India Pariwar</t>
+  </si>
+  <si>
+    <t>Played in the IPL from 2011 to 2013. Withdrew from the IPL due to financial disputes with BCCI.</t>
+  </si>
+  <si>
+    <t>Maharashtra Cricket Association Stadium</t>
+  </si>
+  <si>
+    <t>AD Mathews</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Manoj Badale (The Royals Sports Group), RedBird Capital Partners, Lachlan Murdoch</t>
+  </si>
+  <si>
+    <t>Halla Bol</t>
+  </si>
+  <si>
+    <t>2.9M</t>
+  </si>
+  <si>
+    <t>4.7M</t>
+  </si>
+  <si>
+    <t>Won the inaugural IPL season in 2008. Was banned for two years (2016 and 2017) due to illegal betting by their owners.</t>
+  </si>
+  <si>
+    <t>Sawai Mansingh Stadium</t>
+  </si>
+  <si>
+    <t>SV Samson</t>
+  </si>
+  <si>
+    <t>RP-Sanjiv Goenka Group</t>
+  </si>
+  <si>
+    <t>Played in IPL for two seasons (2016 and 2017) as a replacement for Chennai Super Kings and Rajasthan Royals. Reached the final in 2017 under Steve Smith's captaincy.</t>
+  </si>
+  <si>
+    <t>Royal Challengers Bengaluru</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>United Spirits</t>
+  </si>
+  <si>
+    <t>Ee Sala Cup Namde</t>
+  </si>
+  <si>
+    <t>7.3M</t>
+  </si>
+  <si>
+    <t>18M</t>
+  </si>
+  <si>
+    <t>Recently won their maiden IPL title in 2025. Changed their name from Royal Challengers Bangalore to Royal Challengers Bengaluru. Virat Kohli is their all-time leading run-scorer and has the highest individual runs in a single IPL season (973 in 2016).</t>
+  </si>
+  <si>
+    <t>M. Chinnaswamy Stadium</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Kalanithi Maran (Sun Group)</t>
+  </si>
+  <si>
+    <t>Orange Army</t>
+  </si>
+  <si>
+    <t>3.3M</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>Founded in 2013, replacing Deccan Chargers. Won their maiden IPL title in 2016.</t>
+  </si>
+  <si>
+    <t>PJ Cummins</t>
+  </si>
+  <si>
+    <t>Delhi Daredevils</t>
+  </si>
+  <si>
+    <t>Former Name</t>
+  </si>
+  <si>
+    <t>Active Status</t>
   </si>
 </sst>
 </file>
@@ -637,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFAD309-D2E7-4234-B2F0-5D89F373FC3C}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -1155,12 +1501,624 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13E90D2-0D0F-40DF-889B-9EDC6ADA7724}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.7109375" customWidth="1"/>
+    <col min="12" max="12" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7">
+        <v>6.5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8">
+        <v>0.1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" t="s">
+        <v>129</v>
+      </c>
+      <c r="M8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10">
+        <v>4.5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K11" t="s">
+        <v>152</v>
+      </c>
+      <c r="L11" t="s">
+        <v>153</v>
+      </c>
+      <c r="M11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12">
+        <v>0.2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" t="s">
+        <v>157</v>
+      </c>
+      <c r="M12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13">
+        <v>5.5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" t="s">
+        <v>165</v>
+      </c>
+      <c r="M13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14">
+        <v>0.3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>168</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" t="s">
+        <v>174</v>
+      </c>
+      <c r="J15">
+        <v>9.5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>175</v>
+      </c>
+      <c r="L15" t="s">
+        <v>176</v>
+      </c>
+      <c r="M15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" t="s">
+        <v>181</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M20" xr:uid="{C13E90D2-0D0F-40DF-889B-9EDC6ADA7724}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/IPL Analysis.xlsx
+++ b/IPL Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/praveenkumar_tr_dxc_com/Documents/Desktop/MFS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{F842F2AB-F5B3-4A05-ABED-287D63578CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69693213-4D66-4B75-BA1C-B8EFF2E74547}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{F842F2AB-F5B3-4A05-ABED-287D63578CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B8D0776-B9AB-4050-A49E-8D80B55A4BA4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{92A257DA-3B33-41DA-8573-798AC54EDF11}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="188">
   <si>
     <t>Season</t>
   </si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>Active Status</t>
+  </si>
+  <si>
+    <t>Trophies</t>
   </si>
 </sst>
 </file>
@@ -1501,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13E90D2-0D0F-40DF-889B-9EDC6ADA7724}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="N18" sqref="N18:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,7 +1518,7 @@
     <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -1555,8 +1558,11 @@
       <c r="M1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1593,8 +1599,11 @@
       <c r="M2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1628,8 +1637,11 @@
       <c r="M3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1669,8 +1681,11 @@
       <c r="M4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -1707,8 +1722,11 @@
       <c r="M5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1742,8 +1760,11 @@
       <c r="M6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -1783,8 +1804,11 @@
       <c r="M7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -1818,8 +1842,11 @@
       <c r="M8" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1856,8 +1883,11 @@
       <c r="M9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>139</v>
       </c>
@@ -1891,8 +1921,11 @@
       <c r="M10" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1929,8 +1962,11 @@
       <c r="M11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>154</v>
       </c>
@@ -1964,8 +2000,11 @@
       <c r="M12" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2002,8 +2041,11 @@
       <c r="M13" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2037,8 +2079,11 @@
       <c r="M14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>169</v>
       </c>
@@ -2078,8 +2123,11 @@
       <c r="M15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -2115,6 +2163,9 @@
       </c>
       <c r="M16" t="s">
         <v>183</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/IPL Analysis.xlsx
+++ b/IPL Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/praveenkumar_tr_dxc_com/Documents/Desktop/MFS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{F842F2AB-F5B3-4A05-ABED-287D63578CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B8D0776-B9AB-4050-A49E-8D80B55A4BA4}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{F842F2AB-F5B3-4A05-ABED-287D63578CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{566E70D5-6B17-488D-930B-2CCA137CF5D6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{92A257DA-3B33-41DA-8573-798AC54EDF11}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92A257DA-3B33-41DA-8573-798AC54EDF11}"/>
   </bookViews>
   <sheets>
     <sheet name="Seasonal Fact" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="193">
   <si>
     <t>Season</t>
   </si>
@@ -605,6 +605,21 @@
   </si>
   <si>
     <t>Trophies</t>
+  </si>
+  <si>
+    <t>Matches</t>
+  </si>
+  <si>
+    <t>Total 4s</t>
+  </si>
+  <si>
+    <t>Total 6s</t>
+  </si>
+  <si>
+    <t>Total 50s</t>
+  </si>
+  <si>
+    <t>Total 100s</t>
   </si>
 </sst>
 </file>
@@ -646,10 +661,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFAD309-D2E7-4234-B2F0-5D89F373FC3C}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,7 +1021,7 @@
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1027,8 +1046,23 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2008</v>
       </c>
@@ -1053,8 +1087,23 @@
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="3">
+        <v>58</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1702</v>
+      </c>
+      <c r="K2">
+        <v>622</v>
+      </c>
+      <c r="L2">
+        <v>96</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2009</v>
       </c>
@@ -1079,8 +1128,23 @@
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="3">
+        <v>57</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1316</v>
+      </c>
+      <c r="K3">
+        <v>506</v>
+      </c>
+      <c r="L3">
+        <v>82</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2010</v>
       </c>
@@ -1105,8 +1169,23 @@
       <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="3">
+        <v>60</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1708</v>
+      </c>
+      <c r="K4">
+        <v>585</v>
+      </c>
+      <c r="L4">
+        <v>92</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2011</v>
       </c>
@@ -1131,8 +1210,23 @@
       <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="3">
+        <v>73</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1913</v>
+      </c>
+      <c r="K5">
+        <v>639</v>
+      </c>
+      <c r="L5">
+        <v>104</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2012</v>
       </c>
@@ -1157,8 +1251,23 @@
       <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="3">
+        <v>74</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1911</v>
+      </c>
+      <c r="K6">
+        <v>733</v>
+      </c>
+      <c r="L6">
+        <v>118</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2013</v>
       </c>
@@ -1183,8 +1292,23 @@
       <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="3">
+        <v>76</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2052</v>
+      </c>
+      <c r="K7">
+        <v>675</v>
+      </c>
+      <c r="L7">
+        <v>114</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2014</v>
       </c>
@@ -1209,8 +1333,23 @@
       <c r="H8" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="3">
+        <v>60</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1563</v>
+      </c>
+      <c r="K8">
+        <v>715</v>
+      </c>
+      <c r="L8">
+        <v>87</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2015</v>
       </c>
@@ -1235,8 +1374,23 @@
       <c r="H9" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="3">
+        <v>59</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1607</v>
+      </c>
+      <c r="K9">
+        <v>692</v>
+      </c>
+      <c r="L9">
+        <v>89</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2016</v>
       </c>
@@ -1261,8 +1415,23 @@
       <c r="H10" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="3">
+        <v>60</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1633</v>
+      </c>
+      <c r="K10">
+        <v>638</v>
+      </c>
+      <c r="L10">
+        <v>94</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2017</v>
       </c>
@@ -1287,8 +1456,23 @@
       <c r="H11" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="3">
+        <v>59</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1612</v>
+      </c>
+      <c r="K11">
+        <v>705</v>
+      </c>
+      <c r="L11">
+        <v>95</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2018</v>
       </c>
@@ -1313,8 +1497,23 @@
       <c r="H12" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="3">
+        <v>60</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1674</v>
+      </c>
+      <c r="K12">
+        <v>869</v>
+      </c>
+      <c r="L12">
+        <v>98</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2019</v>
       </c>
@@ -1339,8 +1538,23 @@
       <c r="H13" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="3">
+        <v>60</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1685</v>
+      </c>
+      <c r="K13">
+        <v>784</v>
+      </c>
+      <c r="L13">
+        <v>91</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2020</v>
       </c>
@@ -1365,8 +1579,23 @@
       <c r="H14" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="3">
+        <v>60</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1514</v>
+      </c>
+      <c r="K14">
+        <v>734</v>
+      </c>
+      <c r="L14">
+        <v>92</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2021</v>
       </c>
@@ -1391,8 +1620,23 @@
       <c r="H15" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="3">
+        <v>60</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1452</v>
+      </c>
+      <c r="K15">
+        <v>687</v>
+      </c>
+      <c r="L15">
+        <v>88</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2022</v>
       </c>
@@ -1417,8 +1661,23 @@
       <c r="H16" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="3">
+        <v>74</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2017</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1062</v>
+      </c>
+      <c r="L16">
+        <v>112</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2023</v>
       </c>
@@ -1443,8 +1702,23 @@
       <c r="H17" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="3">
+        <v>74</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2174</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1124</v>
+      </c>
+      <c r="L17">
+        <v>153</v>
+      </c>
+      <c r="M17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2024</v>
       </c>
@@ -1469,8 +1743,23 @@
       <c r="H18" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="3">
+        <v>71</v>
+      </c>
+      <c r="J18" s="4">
+        <v>2135</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1260</v>
+      </c>
+      <c r="L18">
+        <v>148</v>
+      </c>
+      <c r="M18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2025</v>
       </c>
@@ -1494,6 +1783,21 @@
       </c>
       <c r="H19" s="1" t="s">
         <v>71</v>
+      </c>
+      <c r="I19" s="3">
+        <v>74</v>
+      </c>
+      <c r="J19" s="4">
+        <v>2088</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1215</v>
+      </c>
+      <c r="L19">
+        <v>154</v>
+      </c>
+      <c r="M19">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1506,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13E90D2-0D0F-40DF-889B-9EDC6ADA7724}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18:N19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
